--- a/url/automation_framework.xlsx
+++ b/url/automation_framework.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>sn</t>
   </si>
@@ -34,7 +34,7 @@
     <t>open_browser</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>firefox</t>
   </si>
   <si>
     <t>Open Application URL</t>
@@ -97,7 +97,16 @@
     <t>select_dropdown</t>
   </si>
   <si>
-    <t>Butwal</t>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open new tab   </t>
+  </si>
+  <si>
+    <t>new_tab</t>
+  </si>
+  <si>
+    <t>https://merolagani.com</t>
   </si>
   <si>
     <t>Choose Browser</t>
@@ -370,6 +379,7 @@
     <col customWidth="1" min="2" max="2" width="27.88"/>
     <col customWidth="1" min="3" max="3" width="25.5"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,11 +519,26 @@
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="E9"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/url/automation_framework.xlsx
+++ b/url/automation_framework.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>sn</t>
   </si>
@@ -34,7 +35,7 @@
     <t>open_browser</t>
   </si>
   <si>
-    <t>firefox</t>
+    <t>chrome</t>
   </si>
   <si>
     <t>Open Application URL</t>
@@ -64,13 +65,13 @@
     <t>compare_text</t>
   </si>
   <si>
-    <t>Contact Form</t>
+    <t>Contact From</t>
   </si>
   <si>
     <t>Input First Name</t>
   </si>
   <si>
-    <t>//input[@name="firstname"]</t>
+    <t>//input[@id="firstname-839ecfa5-b5a0-4c0a-887c-c8ae2061af23"]</t>
   </si>
   <si>
     <t>input_text</t>
@@ -82,7 +83,7 @@
     <t>Input Last Name</t>
   </si>
   <si>
-    <t>//input[@name="lastname"]</t>
+    <t>//input[@id="lastname-839ecfa5-b5a0-4c0a-887c-c8ae2061af23"]</t>
   </si>
   <si>
     <t>Sunuwar</t>
@@ -109,16 +110,43 @@
     <t>https://merolagani.com</t>
   </si>
   <si>
-    <t>Choose Browser</t>
+    <t>Close Browser</t>
   </si>
   <si>
     <t>close_browser</t>
+  </si>
+  <si>
+    <t>Test Started On</t>
+  </si>
+  <si>
+    <t>Test Completed On</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>merolagani.com</t>
+  </si>
+  <si>
+    <t>Total Number of Test</t>
+  </si>
+  <si>
+    <t>Number of Passed Test Case</t>
+  </si>
+  <si>
+    <t>Number of Failed Test Case</t>
+  </si>
+  <si>
+    <t>Number of Skipped Tested Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -150,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -160,6 +188,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -169,6 +206,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -377,7 +418,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="27.88"/>
-    <col customWidth="1" min="3" max="3" width="25.5"/>
+    <col customWidth="1" min="3" max="3" width="42.38"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="20.5"/>
   </cols>
@@ -465,7 +506,7 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -482,7 +523,7 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -491,6 +532,7 @@
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -541,4 +583,109 @@
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="19.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44037.86493055556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44037.86493055556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C4"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>